--- a/analysis/MASTER_Clea.xlsx
+++ b/analysis/MASTER_Clea.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11003"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kim/Documents/Traas_On_Product/AIrux8_opti_logic/analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CF8C157-5F70-E645-93B5-DD7F64E27E7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA8CB5B5-04B6-B84B-BD87-B5021EF6D245}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36000" yWindow="0" windowWidth="51200" windowHeight="28800" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="800" windowWidth="36000" windowHeight="21260" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MASTER" sheetId="1" r:id="rId1"/>
@@ -427,7 +427,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="111">
   <si>
     <t>制御区分</t>
   </si>
@@ -941,6 +941,30 @@
     <rPh sb="6" eb="8">
       <t xml:space="preserve">ジョウゲン </t>
     </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>Area 1</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>Area 2</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>Area 3</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>Area 4</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>Meeting Room</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>Break Room</t>
     <phoneticPr fontId="10"/>
   </si>
 </sst>
@@ -1569,7 +1593,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
@@ -1664,7 +1688,7 @@
     </row>
     <row r="2" spans="1:29" ht="14">
       <c r="A2" s="6" t="s">
-        <v>18</v>
+        <v>105</v>
       </c>
       <c r="B2" s="7">
         <v>0.3125</v>
@@ -1735,7 +1759,7 @@
     </row>
     <row r="3" spans="1:29" ht="14">
       <c r="A3" s="6" t="s">
-        <v>18</v>
+        <v>105</v>
       </c>
       <c r="B3" s="7">
         <v>0.3125</v>
@@ -1806,7 +1830,7 @@
     </row>
     <row r="4" spans="1:29" ht="14">
       <c r="A4" s="6" t="s">
-        <v>18</v>
+        <v>105</v>
       </c>
       <c r="B4" s="7">
         <v>0.3125</v>
@@ -1877,7 +1901,7 @@
     </row>
     <row r="5" spans="1:29" ht="14">
       <c r="A5" s="6" t="s">
-        <v>18</v>
+        <v>105</v>
       </c>
       <c r="B5" s="7">
         <v>0.3125</v>
@@ -1948,7 +1972,7 @@
     </row>
     <row r="6" spans="1:29" ht="14">
       <c r="A6" s="6" t="s">
-        <v>18</v>
+        <v>105</v>
       </c>
       <c r="B6" s="7">
         <v>0.3125</v>
@@ -2019,7 +2043,7 @@
     </row>
     <row r="7" spans="1:29" ht="14">
       <c r="A7" s="6" t="s">
-        <v>18</v>
+        <v>105</v>
       </c>
       <c r="B7" s="7">
         <v>0.3125</v>
@@ -2090,7 +2114,7 @@
     </row>
     <row r="8" spans="1:29" ht="14">
       <c r="A8" s="6" t="s">
-        <v>18</v>
+        <v>105</v>
       </c>
       <c r="B8" s="7">
         <v>0.3125</v>
@@ -2161,7 +2185,7 @@
     </row>
     <row r="9" spans="1:29" ht="14">
       <c r="A9" s="6" t="s">
-        <v>18</v>
+        <v>105</v>
       </c>
       <c r="B9" s="7">
         <v>0.3125</v>
@@ -2232,7 +2256,7 @@
     </row>
     <row r="10" spans="1:29" ht="14">
       <c r="A10" s="15" t="s">
-        <v>35</v>
+        <v>106</v>
       </c>
       <c r="B10" s="16">
         <v>0.29166666666666669</v>
@@ -2303,7 +2327,7 @@
     </row>
     <row r="11" spans="1:29" ht="14">
       <c r="A11" s="15" t="s">
-        <v>35</v>
+        <v>106</v>
       </c>
       <c r="B11" s="16">
         <v>0.29166666666666669</v>
@@ -2374,7 +2398,7 @@
     </row>
     <row r="12" spans="1:29" ht="14">
       <c r="A12" s="15" t="s">
-        <v>35</v>
+        <v>106</v>
       </c>
       <c r="B12" s="16">
         <v>0.29166666666666669</v>
@@ -2445,7 +2469,7 @@
     </row>
     <row r="13" spans="1:29" ht="14">
       <c r="A13" s="15" t="s">
-        <v>35</v>
+        <v>106</v>
       </c>
       <c r="B13" s="16">
         <v>0.29166666666666669</v>
@@ -2516,7 +2540,7 @@
     </row>
     <row r="14" spans="1:29" ht="14">
       <c r="A14" s="15" t="s">
-        <v>35</v>
+        <v>106</v>
       </c>
       <c r="B14" s="16">
         <v>0.29166666666666669</v>
@@ -2587,7 +2611,7 @@
     </row>
     <row r="15" spans="1:29" ht="14">
       <c r="A15" s="15" t="s">
-        <v>35</v>
+        <v>106</v>
       </c>
       <c r="B15" s="16">
         <v>0.29166666666666669</v>
@@ -2658,7 +2682,7 @@
     </row>
     <row r="16" spans="1:29" ht="14">
       <c r="A16" s="23" t="s">
-        <v>43</v>
+        <v>107</v>
       </c>
       <c r="B16" s="24">
         <v>0.3125</v>
@@ -2729,7 +2753,7 @@
     </row>
     <row r="17" spans="1:29" ht="14">
       <c r="A17" s="23" t="s">
-        <v>43</v>
+        <v>107</v>
       </c>
       <c r="B17" s="24">
         <v>0.3125</v>
@@ -2799,7 +2823,7 @@
     </row>
     <row r="18" spans="1:29" ht="14">
       <c r="A18" s="32" t="s">
-        <v>47</v>
+        <v>108</v>
       </c>
       <c r="B18" s="33">
         <v>0.27083333333333331</v>
@@ -2870,7 +2894,7 @@
     </row>
     <row r="19" spans="1:29" ht="14">
       <c r="A19" s="32" t="s">
-        <v>47</v>
+        <v>108</v>
       </c>
       <c r="B19" s="33">
         <v>0.27083333333333331</v>
@@ -2941,7 +2965,7 @@
     </row>
     <row r="20" spans="1:29" ht="14">
       <c r="A20" s="32" t="s">
-        <v>47</v>
+        <v>108</v>
       </c>
       <c r="B20" s="33">
         <v>0.27083333333333331</v>
@@ -3012,7 +3036,7 @@
     </row>
     <row r="21" spans="1:29" ht="14">
       <c r="A21" s="40" t="s">
-        <v>51</v>
+        <v>109</v>
       </c>
       <c r="B21" s="41" t="s">
         <v>52</v>
@@ -3083,7 +3107,7 @@
     </row>
     <row r="22" spans="1:29" ht="14">
       <c r="A22" s="40" t="s">
-        <v>51</v>
+        <v>109</v>
       </c>
       <c r="B22" s="41" t="s">
         <v>52</v>
@@ -3154,7 +3178,7 @@
     </row>
     <row r="23" spans="1:29" ht="14">
       <c r="A23" s="47" t="s">
-        <v>55</v>
+        <v>110</v>
       </c>
       <c r="B23" s="48" t="s">
         <v>52</v>
@@ -3225,7 +3249,7 @@
     </row>
     <row r="24" spans="1:29" ht="14">
       <c r="A24" s="47" t="s">
-        <v>55</v>
+        <v>110</v>
       </c>
       <c r="B24" s="48" t="s">
         <v>52</v>
@@ -4829,10 +4853,10 @@
   </sheetPr>
   <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="116" workbookViewId="0">
+    <sheetView zoomScale="116" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection sqref="A1:G1048576"/>
-      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
+      <selection pane="bottomLeft" activeCell="J9" sqref="J8:J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="48" customHeight="1"/>
@@ -5501,7 +5525,7 @@
     <sheetView zoomScale="116" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection sqref="A1:G1048576"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="48" customHeight="1"/>
@@ -5540,7 +5564,7 @@
     </row>
     <row r="2" spans="1:8" ht="48" customHeight="1">
       <c r="A2" s="6" t="s">
-        <v>18</v>
+        <v>105</v>
       </c>
       <c r="B2" s="7">
         <v>0.3125</v>
@@ -5567,7 +5591,7 @@
     </row>
     <row r="3" spans="1:8" ht="48" customHeight="1">
       <c r="A3" s="15" t="s">
-        <v>35</v>
+        <v>106</v>
       </c>
       <c r="B3" s="16">
         <v>0.29166666666666669</v>
@@ -5594,7 +5618,7 @@
     </row>
     <row r="4" spans="1:8" ht="48" customHeight="1">
       <c r="A4" s="23" t="s">
-        <v>43</v>
+        <v>107</v>
       </c>
       <c r="B4" s="24">
         <v>0.3125</v>
@@ -5621,7 +5645,7 @@
     </row>
     <row r="5" spans="1:8" ht="48" customHeight="1">
       <c r="A5" s="32" t="s">
-        <v>47</v>
+        <v>108</v>
       </c>
       <c r="B5" s="33">
         <v>0.27083333333333331</v>
@@ -5648,7 +5672,7 @@
     </row>
     <row r="6" spans="1:8" ht="48" customHeight="1">
       <c r="A6" s="40" t="s">
-        <v>51</v>
+        <v>109</v>
       </c>
       <c r="B6" s="41">
         <v>0.29166666666666669</v>
@@ -5675,7 +5699,7 @@
     </row>
     <row r="7" spans="1:8" ht="48" customHeight="1">
       <c r="A7" s="47" t="s">
-        <v>55</v>
+        <v>110</v>
       </c>
       <c r="B7" s="63">
         <v>0.29166666666666669</v>
@@ -6076,10 +6100,10 @@
   </sheetPr>
   <dimension ref="A1:K63"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection sqref="A1:G1048576"/>
-      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
@@ -6115,7 +6139,7 @@
     </row>
     <row r="2" spans="1:11" ht="14">
       <c r="A2" s="6" t="s">
-        <v>18</v>
+        <v>105</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>89</v>
@@ -6140,7 +6164,7 @@
     </row>
     <row r="3" spans="1:11" ht="14">
       <c r="A3" s="6" t="s">
-        <v>18</v>
+        <v>105</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>69</v>
@@ -6165,7 +6189,7 @@
     </row>
     <row r="4" spans="1:11" ht="14">
       <c r="A4" s="6" t="s">
-        <v>18</v>
+        <v>105</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>70</v>
@@ -6190,7 +6214,7 @@
     </row>
     <row r="5" spans="1:11" ht="14">
       <c r="A5" s="6" t="s">
-        <v>18</v>
+        <v>105</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>71</v>
@@ -6215,7 +6239,7 @@
     </row>
     <row r="6" spans="1:11" ht="14">
       <c r="A6" s="6" t="s">
-        <v>18</v>
+        <v>105</v>
       </c>
       <c r="B6" s="13" t="s">
         <v>71</v>
@@ -6240,7 +6264,7 @@
     </row>
     <row r="7" spans="1:11" ht="14">
       <c r="A7" s="6" t="s">
-        <v>18</v>
+        <v>105</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>72</v>
@@ -6265,7 +6289,7 @@
     </row>
     <row r="8" spans="1:11" ht="14">
       <c r="A8" s="6" t="s">
-        <v>18</v>
+        <v>105</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>73</v>
@@ -6290,7 +6314,7 @@
     </row>
     <row r="9" spans="1:11" ht="14">
       <c r="A9" s="6" t="s">
-        <v>18</v>
+        <v>105</v>
       </c>
       <c r="B9" s="9" t="s">
         <v>74</v>
@@ -6315,7 +6339,7 @@
     </row>
     <row r="10" spans="1:11" ht="14">
       <c r="A10" s="15" t="s">
-        <v>35</v>
+        <v>106</v>
       </c>
       <c r="B10" s="18" t="s">
         <v>75</v>
@@ -6340,7 +6364,7 @@
     </row>
     <row r="11" spans="1:11" ht="14">
       <c r="A11" s="15" t="s">
-        <v>35</v>
+        <v>106</v>
       </c>
       <c r="B11" s="18" t="s">
         <v>76</v>
@@ -6365,7 +6389,7 @@
     </row>
     <row r="12" spans="1:11" ht="14">
       <c r="A12" s="15" t="s">
-        <v>35</v>
+        <v>106</v>
       </c>
       <c r="B12" s="18" t="s">
         <v>77</v>
@@ -6390,7 +6414,7 @@
     </row>
     <row r="13" spans="1:11" ht="14">
       <c r="A13" s="15" t="s">
-        <v>35</v>
+        <v>106</v>
       </c>
       <c r="B13" s="18" t="s">
         <v>78</v>
@@ -6415,7 +6439,7 @@
     </row>
     <row r="14" spans="1:11" ht="14">
       <c r="A14" s="15" t="s">
-        <v>35</v>
+        <v>106</v>
       </c>
       <c r="B14" s="18" t="s">
         <v>79</v>
@@ -6440,7 +6464,7 @@
     </row>
     <row r="15" spans="1:11" ht="14">
       <c r="A15" s="15" t="s">
-        <v>35</v>
+        <v>106</v>
       </c>
       <c r="B15" s="18" t="s">
         <v>80</v>
@@ -6465,7 +6489,7 @@
     </row>
     <row r="16" spans="1:11" ht="14">
       <c r="A16" s="23" t="s">
-        <v>43</v>
+        <v>107</v>
       </c>
       <c r="B16" s="26" t="s">
         <v>63</v>
@@ -6490,7 +6514,7 @@
     </row>
     <row r="17" spans="1:11" ht="14">
       <c r="A17" s="23" t="s">
-        <v>43</v>
+        <v>107</v>
       </c>
       <c r="B17" s="62" t="s">
         <v>63</v>
@@ -6515,7 +6539,7 @@
     </row>
     <row r="18" spans="1:11" ht="14">
       <c r="A18" s="32" t="s">
-        <v>47</v>
+        <v>108</v>
       </c>
       <c r="B18" s="35" t="s">
         <v>81</v>
@@ -6540,7 +6564,7 @@
     </row>
     <row r="19" spans="1:11" ht="14">
       <c r="A19" s="32" t="s">
-        <v>47</v>
+        <v>108</v>
       </c>
       <c r="B19" s="35" t="s">
         <v>82</v>
@@ -6565,7 +6589,7 @@
     </row>
     <row r="20" spans="1:11" ht="14">
       <c r="A20" s="32" t="s">
-        <v>47</v>
+        <v>108</v>
       </c>
       <c r="B20" s="35" t="s">
         <v>82</v>
@@ -6590,7 +6614,7 @@
     </row>
     <row r="21" spans="1:11" ht="14">
       <c r="A21" s="40" t="s">
-        <v>51</v>
+        <v>109</v>
       </c>
       <c r="B21" s="43" t="s">
         <v>83</v>
@@ -6615,7 +6639,7 @@
     </row>
     <row r="22" spans="1:11" ht="14">
       <c r="A22" s="40" t="s">
-        <v>51</v>
+        <v>109</v>
       </c>
       <c r="B22" s="43" t="s">
         <v>83</v>
@@ -6640,7 +6664,7 @@
     </row>
     <row r="23" spans="1:11" ht="14">
       <c r="A23" s="47" t="s">
-        <v>55</v>
+        <v>110</v>
       </c>
       <c r="B23" s="50" t="s">
         <v>84</v>
@@ -6665,7 +6689,7 @@
     </row>
     <row r="24" spans="1:11" ht="14">
       <c r="A24" s="47" t="s">
-        <v>55</v>
+        <v>110</v>
       </c>
       <c r="B24" s="50" t="s">
         <v>84</v>
